--- a/water_quality_prediction/data/mini_sample/서상_2019.xlsx
+++ b/water_quality_prediction/data/mini_sample/서상_2019.xlsx
@@ -431,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,7 +446,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -520,10 +520,10 @@
         <v>0.5</v>
       </c>
       <c r="H2" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>1.45</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1">
         <v>1.0999999999999999E-2</v>
@@ -555,10 +555,10 @@
         <v>0.5</v>
       </c>
       <c r="H3" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>1.4430000000000001</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1">
         <v>8.0000000000000002E-3</v>
@@ -590,10 +590,10 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="1">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>1.4570000000000001</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1">
         <v>7.0000000000000001E-3</v>
@@ -625,10 +625,10 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="1">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
-        <v>1.4710000000000001</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1">
         <v>8.9999999999999993E-3</v>
@@ -660,10 +660,10 @@
         <v>0.5</v>
       </c>
       <c r="H6" s="1">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1">
-        <v>1.4750000000000001</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1">
         <v>1.0999999999999999E-2</v>

--- a/water_quality_prediction/data/mini_sample/서상_2019.xlsx
+++ b/water_quality_prediction/data/mini_sample/서상_2019.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>수온</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>서상</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2019.01.01 01:00</t>
@@ -431,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,10 +461,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -528,13 +525,13 @@
       <c r="J2" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K2" t="s">
-        <v>11</v>
+      <c r="K2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -563,13 +560,13 @@
       <c r="J3" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K3" t="s">
-        <v>11</v>
+      <c r="K3" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -598,13 +595,13 @@
       <c r="J4" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K4" t="s">
-        <v>11</v>
+      <c r="K4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -633,13 +630,13 @@
       <c r="J5" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K5" t="s">
-        <v>11</v>
+      <c r="K5" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -668,8 +665,8 @@
       <c r="J6" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K6" t="s">
-        <v>11</v>
+      <c r="K6" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
